--- a/data/trans_orig/P34A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>307797</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>280162</v>
+        <v>283282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>331576</v>
+        <v>336329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4483367729554728</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.408083507754758</v>
+        <v>0.4126284633336395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.482973431807494</v>
+        <v>0.4898976914501392</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>285</v>
@@ -765,19 +765,19 @@
         <v>283604</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>256790</v>
+        <v>259264</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309610</v>
+        <v>308039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4144810057090955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3752929669457883</v>
+        <v>0.3789090426338803</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4524891334701463</v>
+        <v>0.4501932223000119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>588</v>
@@ -786,19 +786,19 @@
         <v>591400</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>555449</v>
+        <v>559043</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>625938</v>
+        <v>629442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4314371963134234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.405209842810371</v>
+        <v>0.4078322696033838</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4566328863589871</v>
+        <v>0.4591890547837473</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>378733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>354954</v>
+        <v>350201</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406368</v>
+        <v>403248</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5516632270445272</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5170265681925061</v>
+        <v>0.5101023085498608</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5919164922452421</v>
+        <v>0.5873715366663604</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>407</v>
@@ -836,19 +836,19 @@
         <v>400634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>374628</v>
+        <v>376199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427448</v>
+        <v>424974</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5855189942909045</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.547510866529854</v>
+        <v>0.5498067776999882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6247070330542117</v>
+        <v>0.6210909573661201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>780</v>
@@ -857,19 +857,19 @@
         <v>779368</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>744830</v>
+        <v>741326</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>815319</v>
+        <v>811725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5685628036865765</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5433671136410129</v>
+        <v>0.5408109452162526</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.594790157189629</v>
+        <v>0.5921677303966163</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>397984</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>363960</v>
+        <v>367202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>427444</v>
+        <v>429642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4211523609897271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.385147712578829</v>
+        <v>0.3885783681990478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4523265959158147</v>
+        <v>0.4546526701546196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>415</v>
@@ -982,19 +982,19 @@
         <v>449352</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>417953</v>
+        <v>418805</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>480956</v>
+        <v>483416</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4719955419562315</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4390138222832271</v>
+        <v>0.4399089062270679</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.505192563812535</v>
+        <v>0.5077757278081015</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>779</v>
@@ -1003,19 +1003,19 @@
         <v>847336</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>804127</v>
+        <v>803825</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>892782</v>
+        <v>892818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4466682474024718</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.42389056332125</v>
+        <v>0.4237313425034585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4706247416271519</v>
+        <v>0.4706435974819459</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>547005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>517545</v>
+        <v>515347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>581029</v>
+        <v>577787</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5788476390102729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5476734040841853</v>
+        <v>0.5453473298453806</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.614852287421171</v>
+        <v>0.6114216318009522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -1053,19 +1053,19 @@
         <v>502674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>471070</v>
+        <v>468610</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>534073</v>
+        <v>533221</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5280044580437685</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4948074361874651</v>
+        <v>0.4922242721918985</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5609861777167729</v>
+        <v>0.5600910937729322</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>996</v>
@@ -1074,19 +1074,19 @@
         <v>1049679</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1004233</v>
+        <v>1004197</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1092888</v>
+        <v>1093190</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5533317525975282</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.529375258372848</v>
+        <v>0.5293564025180542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5761094366787499</v>
+        <v>0.5762686574965417</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>219106</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>194185</v>
+        <v>195783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246036</v>
+        <v>245033</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3269093782535977</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2897262724831538</v>
+        <v>0.2921112419652272</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3670885022415377</v>
+        <v>0.3655917013367885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>264</v>
@@ -1199,19 +1199,19 @@
         <v>262281</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>236709</v>
+        <v>238629</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>285302</v>
+        <v>287594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3907000520942888</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3526073651660933</v>
+        <v>0.3554672007639904</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4249930253281952</v>
+        <v>0.4284066608093602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>472</v>
@@ -1220,19 +1220,19 @@
         <v>481388</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>448403</v>
+        <v>441503</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>515424</v>
+        <v>515761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3588302839470561</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3342434210045462</v>
+        <v>0.3291002843961108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3842012885205676</v>
+        <v>0.3844522758900761</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>451130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>424200</v>
+        <v>425203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>476051</v>
+        <v>474453</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6730906217464023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6329114977584623</v>
+        <v>0.6344082986632116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7102737275168461</v>
+        <v>0.7078887580347729</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>419</v>
@@ -1270,19 +1270,19 @@
         <v>409030</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>386009</v>
+        <v>383717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>434602</v>
+        <v>432682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6092999479057112</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5750069746718048</v>
+        <v>0.5715933391906396</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6473926348339066</v>
+        <v>0.6445327992360095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>844</v>
@@ -1291,19 +1291,19 @@
         <v>860159</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>826123</v>
+        <v>825786</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>893144</v>
+        <v>900044</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6411697160529439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6157987114794328</v>
+        <v>0.615547724109924</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6657565789954538</v>
+        <v>0.6708997156038894</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>402240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>374682</v>
+        <v>365408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>431384</v>
+        <v>427483</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4326051612209641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4029668956702871</v>
+        <v>0.392993449357428</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4639498280139734</v>
+        <v>0.4597541645598676</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>509</v>
@@ -1416,19 +1416,19 @@
         <v>535826</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>504158</v>
+        <v>504344</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>567202</v>
+        <v>567983</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5298991506822752</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4985815537694576</v>
+        <v>0.4987662523115327</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5609288979482482</v>
+        <v>0.5617005033684477</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>925</v>
@@ -1437,19 +1437,19 @@
         <v>938065</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>894840</v>
+        <v>895680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>982274</v>
+        <v>982705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4832916874083888</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4610220096799007</v>
+        <v>0.4614547383427298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5060681767000418</v>
+        <v>0.506290288622568</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>527568</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498424</v>
+        <v>502325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>555126</v>
+        <v>564400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5673948387790358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5360501719860268</v>
+        <v>0.5402458354401325</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5970331043297129</v>
+        <v>0.607006550642572</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>461</v>
@@ -1487,19 +1487,19 @@
         <v>475358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>443982</v>
+        <v>443201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>507026</v>
+        <v>506840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4701008493177248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4390711020517518</v>
+        <v>0.4382994966315518</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5014184462305424</v>
+        <v>0.5012337476884673</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1026</v>
@@ -1508,19 +1508,19 @@
         <v>1002927</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>958718</v>
+        <v>958287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1046152</v>
+        <v>1045312</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5167083125916112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4939318232999582</v>
+        <v>0.493709711377432</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5389779903200993</v>
+        <v>0.5385452616572702</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1327127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4106765660559558</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1473</v>
@@ -1633,19 +1633,19 @@
         <v>1531062</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4613358319613749</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2764</v>
@@ -1654,19 +1654,19 @@
         <v>2858190</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4363433802622917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1904436</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1847220</v>
+        <v>1850631</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1963559</v>
+        <v>1959600</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5893234339440443</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5716181334944773</v>
+        <v>0.5726737800577792</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6076190438826725</v>
+        <v>0.606393995142515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1765</v>
@@ -1704,19 +1704,19 @@
         <v>1787697</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1732796</v>
+        <v>1728141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1849668</v>
+        <v>1843754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5386641680386252</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5221216213385891</v>
+        <v>0.520718996515431</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5573372832446459</v>
+        <v>0.5555552179760608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3646</v>
@@ -1725,19 +1725,19 @@
         <v>3692132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3615419</v>
+        <v>3605261</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3769259</v>
+        <v>3769600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5636566197377083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5519451664685279</v>
+        <v>0.550394518001317</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5754311606369101</v>
+        <v>0.5754832177739679</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>162371</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>141492</v>
+        <v>141058</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186421</v>
+        <v>186131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2310977618970785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2013812957372589</v>
+        <v>0.2007632502671841</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2653278037346806</v>
+        <v>0.2649139181823896</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -2090,19 +2090,19 @@
         <v>189481</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>166431</v>
+        <v>166717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>215086</v>
+        <v>215822</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2718334295763889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.238765115061411</v>
+        <v>0.2391752799325334</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3085656765918866</v>
+        <v>0.3096224427875227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>331</v>
@@ -2111,19 +2111,19 @@
         <v>351853</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>320209</v>
+        <v>316886</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>385170</v>
+        <v>380737</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2513847157233164</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2287764277670609</v>
+        <v>0.2264025814133288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2751889462973023</v>
+        <v>0.2720217476911513</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>540237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>516187</v>
+        <v>516477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>561116</v>
+        <v>561550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7689022381029215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7346721962653193</v>
+        <v>0.7350860818176104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7986187042627411</v>
+        <v>0.7992367497328158</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>473</v>
@@ -2161,19 +2161,19 @@
         <v>507569</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>481964</v>
+        <v>481228</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>530619</v>
+        <v>530333</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7281665704236111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6914343234081134</v>
+        <v>0.6903775572124771</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7612348849385889</v>
+        <v>0.7608247200674666</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>992</v>
@@ -2182,19 +2182,19 @@
         <v>1047805</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1014488</v>
+        <v>1018921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1079449</v>
+        <v>1082772</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7486152842766836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7248110537026977</v>
+        <v>0.7279782523088487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7712235722329392</v>
+        <v>0.7735974185866713</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>244775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>219856</v>
+        <v>218325</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>275503</v>
+        <v>276971</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2404595836925699</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2159793556250713</v>
+        <v>0.2144761146147112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2706460396719133</v>
+        <v>0.2720874500260745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>338</v>
@@ -2307,19 +2307,19 @@
         <v>373899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>340956</v>
+        <v>342594</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>407980</v>
+        <v>405302</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3622411196119287</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3303251516952018</v>
+        <v>0.3319121122007032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3952585167266717</v>
+        <v>0.3926649295443291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>563</v>
@@ -2328,19 +2328,19 @@
         <v>618675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>575238</v>
+        <v>578915</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>662600</v>
+        <v>663063</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3017731998930234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2805859775309768</v>
+        <v>0.2823793742249858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3231990193810337</v>
+        <v>0.3234245057158579</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>773172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>742444</v>
+        <v>740976</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>798091</v>
+        <v>799622</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7595404163074301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7293539603280869</v>
+        <v>0.7279125499739255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7840206443749287</v>
+        <v>0.7855238853852888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>602</v>
@@ -2378,19 +2378,19 @@
         <v>658285</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>624204</v>
+        <v>626882</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>691228</v>
+        <v>689590</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6377588803880713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6047414832733283</v>
+        <v>0.6073350704556709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6696748483047983</v>
+        <v>0.6680878877992968</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1313</v>
@@ -2399,19 +2399,19 @@
         <v>1431456</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1387531</v>
+        <v>1387068</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1474893</v>
+        <v>1471216</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6982268001069766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6768009806189662</v>
+        <v>0.6765754942841421</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7194140224690232</v>
+        <v>0.7176206257750143</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>157360</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133084</v>
+        <v>133857</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180956</v>
+        <v>181797</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2077017257819722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1756596736907015</v>
+        <v>0.176680496564451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2388465317447079</v>
+        <v>0.239957391762652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -2524,19 +2524,19 @@
         <v>218752</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>192250</v>
+        <v>191402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244344</v>
+        <v>244619</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2818691486774212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2477210958274355</v>
+        <v>0.2466284793400219</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.314845640792138</v>
+        <v>0.3152002161188928</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -2545,19 +2545,19 @@
         <v>376112</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>339929</v>
+        <v>343943</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>409685</v>
+        <v>414394</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2452316160079563</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2216398709403915</v>
+        <v>0.2242568723393159</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2671220656975889</v>
+        <v>0.2701921738233104</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>600263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>576667</v>
+        <v>575826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>624539</v>
+        <v>623766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7922982742180278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7611534682552922</v>
+        <v>0.7600426082373483</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8243403263092988</v>
+        <v>0.8233195034355492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>500</v>
@@ -2595,19 +2595,19 @@
         <v>557324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>531732</v>
+        <v>531457</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>583826</v>
+        <v>584674</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7181308513225788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6851543592078623</v>
+        <v>0.6847997838811073</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7522789041725647</v>
+        <v>0.7533715206599784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1045</v>
@@ -2616,19 +2616,19 @@
         <v>1157588</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1124015</v>
+        <v>1119306</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1193771</v>
+        <v>1189757</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7547683839920437</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7328779343024107</v>
+        <v>0.7298078261766895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7783601290596082</v>
+        <v>0.775743127660684</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>205223</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>178838</v>
+        <v>178300</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>231427</v>
+        <v>231742</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2167442712873035</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1888780951127469</v>
+        <v>0.1883098503967902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2444200383724794</v>
+        <v>0.2447524921052378</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>307</v>
@@ -2741,19 +2741,19 @@
         <v>318696</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>286482</v>
+        <v>289274</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350599</v>
+        <v>349572</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3029716220206213</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2723471889449604</v>
+        <v>0.2750009685494169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3333006356452344</v>
+        <v>0.3323244328609032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>500</v>
@@ -2762,19 +2762,19 @@
         <v>523919</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>482291</v>
+        <v>488032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>565993</v>
+        <v>567660</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2621241017679669</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2412974006823806</v>
+        <v>0.2441692670246307</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2831743485420031</v>
+        <v>0.2840082975796224</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>741619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>715415</v>
+        <v>715100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>768004</v>
+        <v>768542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7832557287126966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7555799616275206</v>
+        <v>0.7552475078947622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8111219048872529</v>
+        <v>0.8116901496032096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>696</v>
@@ -2812,19 +2812,19 @@
         <v>733205</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>701302</v>
+        <v>702329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>765419</v>
+        <v>762627</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6970283779793787</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6666993643547655</v>
+        <v>0.6676755671390968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7276528110550396</v>
+        <v>0.7249990314505831</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1412</v>
@@ -2833,19 +2833,19 @@
         <v>1474824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1432750</v>
+        <v>1431083</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1516452</v>
+        <v>1510711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7378758982320331</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7168256514579966</v>
+        <v>0.7159917024203775</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7587025993176191</v>
+        <v>0.7558307329753693</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>769729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>721938</v>
+        <v>714917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>819174</v>
+        <v>821697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2247369141775843</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2107835588097481</v>
+        <v>0.2087335794035335</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2391734075614731</v>
+        <v>0.2399099270594574</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1026</v>
@@ -2958,19 +2958,19 @@
         <v>1100829</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1046330</v>
+        <v>1047095</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1159810</v>
+        <v>1164093</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3094640737154594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2941432922116361</v>
+        <v>0.2943584660673423</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3260448439393452</v>
+        <v>0.3272488815805965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1742</v>
@@ -2979,19 +2979,19 @@
         <v>1870558</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1789072</v>
+        <v>1792985</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1944875</v>
+        <v>1952553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2679025383836764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2562321568058876</v>
+        <v>0.2567925325237297</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2785462774599574</v>
+        <v>0.2796458947591188</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2655292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2605847</v>
+        <v>2603324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2703083</v>
+        <v>2710104</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7752630858224157</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.760826592438527</v>
+        <v>0.7600900729405425</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7892164411902518</v>
+        <v>0.7912664205964665</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2271</v>
@@ -3029,19 +3029,19 @@
         <v>2456382</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2397401</v>
+        <v>2393118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2510881</v>
+        <v>2510116</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6905359262845406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6739551560606548</v>
+        <v>0.6727511184194036</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7058567077883638</v>
+        <v>0.7056415339326577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4762</v>
@@ -3050,19 +3050,19 @@
         <v>5111674</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5037357</v>
+        <v>5029679</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5193160</v>
+        <v>5189247</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7320974616163236</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7214537225400424</v>
+        <v>0.7203541052408811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7437678431941123</v>
+        <v>0.7432074674762701</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>238197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>212704</v>
+        <v>213785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>263162</v>
+        <v>262096</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3529896242829618</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3152110083880708</v>
+        <v>0.3168119136770198</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3899847383067955</v>
+        <v>0.3884052577957345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>299</v>
@@ -3415,19 +3415,19 @@
         <v>309459</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>283522</v>
+        <v>281972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>335404</v>
+        <v>335641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4599307469235948</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4213817392181555</v>
+        <v>0.4190784314993904</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4984904847507987</v>
+        <v>0.4988425975621177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>528</v>
@@ -3436,19 +3436,19 @@
         <v>547657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>511803</v>
+        <v>512257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>586787</v>
+        <v>582218</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4063823785087378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3797775490654917</v>
+        <v>0.3801144648389968</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4354184530902782</v>
+        <v>0.4320279490491659</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>436603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411638</v>
+        <v>412704</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>462096</v>
+        <v>461015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6470103757170382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6100152616932044</v>
+        <v>0.6115947422042656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6847889916119292</v>
+        <v>0.6831880863229802</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>367</v>
@@ -3486,19 +3486,19 @@
         <v>363380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337435</v>
+        <v>337198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>389317</v>
+        <v>390867</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5400692530764053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5015095152492014</v>
+        <v>0.5011574024378823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5786182607818449</v>
+        <v>0.5809215685006096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>790</v>
@@ -3507,19 +3507,19 @@
         <v>799982</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>760852</v>
+        <v>765421</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>835836</v>
+        <v>835382</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5936176214912622</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5645815469097216</v>
+        <v>0.567972050950834</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6202224509345083</v>
+        <v>0.6198855351610031</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>359008</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>327668</v>
+        <v>328333</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>389634</v>
+        <v>392218</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3511322500743586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3204795152248011</v>
+        <v>0.3211298023147229</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3810856568101474</v>
+        <v>0.3836131454716549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>414</v>
@@ -3632,19 +3632,19 @@
         <v>448543</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>415181</v>
+        <v>416140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>482127</v>
+        <v>482431</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4300871392641231</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3980976875670661</v>
+        <v>0.3990168474524824</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4622891337367188</v>
+        <v>0.4625799371504378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>753</v>
@@ -3653,19 +3653,19 @@
         <v>807552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>763879</v>
+        <v>762682</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>855719</v>
+        <v>853466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3910011923686153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3698556711249405</v>
+        <v>0.3692757946051386</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4143229093900114</v>
+        <v>0.4132317036197795</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>663423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>632797</v>
+        <v>630213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>694763</v>
+        <v>694098</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6488677499256414</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6189143431898526</v>
+        <v>0.6163868545283453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6795204847751989</v>
+        <v>0.6788701976852772</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -3703,19 +3703,19 @@
         <v>594370</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>560786</v>
+        <v>560482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>627732</v>
+        <v>626773</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5699128607358769</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.537710866263281</v>
+        <v>0.5374200628495622</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6019023124329339</v>
+        <v>0.6009831525475177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1175</v>
@@ -3724,19 +3724,19 @@
         <v>1257792</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1209625</v>
+        <v>1211878</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1301465</v>
+        <v>1302662</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6089988076313847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5856770906099886</v>
+        <v>0.5867682963802207</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6301443288750594</v>
+        <v>0.6307242053948615</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>252170</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>225223</v>
+        <v>226854</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>278770</v>
+        <v>279348</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3319976824070902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2965213840197909</v>
+        <v>0.2986683013122051</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3670190674846612</v>
+        <v>0.367780221013569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>285</v>
@@ -3849,19 +3849,19 @@
         <v>312067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>282144</v>
+        <v>283085</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>340921</v>
+        <v>339123</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3975319024976738</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3594145550134755</v>
+        <v>0.3606129531080507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4342882456057839</v>
+        <v>0.4319973797157504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>519</v>
@@ -3870,19 +3870,19 @@
         <v>564236</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>520145</v>
+        <v>524097</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>605097</v>
+        <v>602596</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3653048841887359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3367584737269759</v>
+        <v>0.3393175239996743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3917593324017949</v>
+        <v>0.3901404021481198</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>507382</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>480782</v>
+        <v>480204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534329</v>
+        <v>532698</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6680023175929098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6329809325153388</v>
+        <v>0.632219778986431</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7034786159802091</v>
+        <v>0.7013316986877949</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>451</v>
@@ -3920,19 +3920,19 @@
         <v>472944</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>444090</v>
+        <v>445888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>502867</v>
+        <v>501926</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6024680975023262</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5657117543942169</v>
+        <v>0.5680026202842496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6405854449865246</v>
+        <v>0.6393870468919493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>913</v>
@@ -3941,19 +3941,19 @@
         <v>980327</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>939466</v>
+        <v>941967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1024418</v>
+        <v>1020466</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.634695115811264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6082406675982051</v>
+        <v>0.6098595978518803</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6632415262730241</v>
+        <v>0.6606824760003257</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>298569</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>271493</v>
+        <v>273289</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>327159</v>
+        <v>327875</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3184506944736923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.28957131000345</v>
+        <v>0.2914878913696132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3489450675830913</v>
+        <v>0.3497080090488748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>398</v>
@@ -4066,19 +4066,19 @@
         <v>444298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>411610</v>
+        <v>412987</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>480100</v>
+        <v>479516</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4256628296077954</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3943462566905836</v>
+        <v>0.3956652186163494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4599633644409227</v>
+        <v>0.4594036015674102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>696</v>
@@ -4087,19 +4087,19 @@
         <v>742867</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>701826</v>
+        <v>698950</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>783234</v>
+        <v>788407</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3749303683370063</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3542166814269492</v>
+        <v>0.352765029399802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3953041719519755</v>
+        <v>0.3979147552947297</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>638998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>610408</v>
+        <v>609692</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>666074</v>
+        <v>664278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6815493055263077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6510549324169089</v>
+        <v>0.6502919909511252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7104286899965501</v>
+        <v>0.7085121086303867</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>561</v>
@@ -4137,19 +4137,19 @@
         <v>599481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>563679</v>
+        <v>564263</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>632169</v>
+        <v>630792</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5743371703922047</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5400366355590773</v>
+        <v>0.5405963984325898</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6056537433094165</v>
+        <v>0.6043347813836507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1195</v>
@@ -4158,19 +4158,19 @@
         <v>1238479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1198112</v>
+        <v>1192939</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1279520</v>
+        <v>1282396</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6250696316629937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6046958280480242</v>
+        <v>0.6020852447052701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6457833185730507</v>
+        <v>0.6472349706001973</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1147944</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1091606</v>
+        <v>1088256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1199965</v>
+        <v>1199984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3381926612854238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3215950534006219</v>
+        <v>0.3206081735745137</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3535183184946157</v>
+        <v>0.353523931978083</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1396</v>
@@ -4283,19 +4283,19 @@
         <v>1514368</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1455953</v>
+        <v>1454466</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1575227</v>
+        <v>1574632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4272393023573018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4107592739346166</v>
+        <v>0.410339723347931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4444092013992952</v>
+        <v>0.444241410252863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2496</v>
@@ -4304,19 +4304,19 @@
         <v>2662312</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2572534</v>
+        <v>2580133</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2743026</v>
+        <v>2747022</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3836796848024363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3707413547908247</v>
+        <v>0.3718364302780425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3953118743132139</v>
+        <v>0.3958876472687944</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2246406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2194385</v>
+        <v>2194366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2302744</v>
+        <v>2306094</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6618073387145762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6464816815053843</v>
+        <v>0.6464760680219169</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.678404946599378</v>
+        <v>0.6793918264254862</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1942</v>
@@ -4354,19 +4354,19 @@
         <v>2030174</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1969315</v>
+        <v>1969910</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2088589</v>
+        <v>2090076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5727606976426982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5555907986007049</v>
+        <v>0.555758589747137</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5892407260653835</v>
+        <v>0.589660276652069</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4073</v>
@@ -4375,19 +4375,19 @@
         <v>4276580</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4195866</v>
+        <v>4191870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4366358</v>
+        <v>4358759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6163203151975637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6046881256867861</v>
+        <v>0.6041123527312056</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6292586452091754</v>
+        <v>0.6281635697219577</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>268998</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>241888</v>
+        <v>242133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>297410</v>
+        <v>298520</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3911947406271107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3517694115008813</v>
+        <v>0.3521258966086491</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4325138053615911</v>
+        <v>0.4341272624185749</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>479</v>
@@ -4740,19 +4740,19 @@
         <v>282673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>261663</v>
+        <v>260055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>305789</v>
+        <v>305261</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3859885021427851</v>
+        <v>0.385988502142785</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3573007179745643</v>
+        <v>0.3551048232217831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4175537868785441</v>
+        <v>0.4168326870030881</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>750</v>
@@ -4761,19 +4761,19 @@
         <v>551671</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>517000</v>
+        <v>513792</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>586843</v>
+        <v>587821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3885096732436351</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3640932225364679</v>
+        <v>0.3618337347065537</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4132796012117059</v>
+        <v>0.4139684077477599</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>418634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>390222</v>
+        <v>389112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445744</v>
+        <v>445499</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6088052593728891</v>
+        <v>0.6088052593728893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5674861946384089</v>
+        <v>0.565872737581425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6482305884991185</v>
+        <v>0.6478741033913507</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>758</v>
@@ -4811,19 +4811,19 @@
         <v>449661</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>426545</v>
+        <v>427073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>470671</v>
+        <v>472279</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.614011497857215</v>
+        <v>0.6140114978572151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5824462131214562</v>
+        <v>0.5831673129969117</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6426992820254357</v>
+        <v>0.6448951767782167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1214</v>
@@ -4832,19 +4832,19 @@
         <v>868295</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>833123</v>
+        <v>832145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>902966</v>
+        <v>906174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6114903267563649</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5867203987882941</v>
+        <v>0.5860315922522402</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6359067774635324</v>
+        <v>0.6381662652934463</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>347265</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>314225</v>
+        <v>317016</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>379248</v>
+        <v>379593</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3319332710731419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3003519367528285</v>
+        <v>0.3030200373442235</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3625046218763919</v>
+        <v>0.3628347047089215</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>581</v>
@@ -4957,19 +4957,19 @@
         <v>410881</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>384431</v>
+        <v>383046</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>444632</v>
+        <v>438800</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.384171083249144</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3594406468381516</v>
+        <v>0.3581458260070779</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.415728434217206</v>
+        <v>0.4102751471849176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>914</v>
@@ -4978,19 +4978,19 @@
         <v>758146</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>717450</v>
+        <v>714658</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>799585</v>
+        <v>801763</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3583402789432739</v>
+        <v>0.3583402789432738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3391053915508086</v>
+        <v>0.3377858127371012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3779269124701345</v>
+        <v>0.3789562730530907</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>698923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>666940</v>
+        <v>666595</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>731963</v>
+        <v>729172</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6680667289268579</v>
+        <v>0.668066728926858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6374953781236079</v>
+        <v>0.6371652952910787</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6996480632471713</v>
+        <v>0.6969799626557769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>933</v>
@@ -5028,19 +5028,19 @@
         <v>658644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>624893</v>
+        <v>630725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>685094</v>
+        <v>686479</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6158289167508559</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5842715657827939</v>
+        <v>0.5897248528150826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6405593531618482</v>
+        <v>0.6418541739929221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1562</v>
@@ -5049,19 +5049,19 @@
         <v>1357568</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1316129</v>
+        <v>1313951</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1398264</v>
+        <v>1401056</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6416597210567263</v>
+        <v>0.6416597210567262</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6220730875298655</v>
+        <v>0.6210437269469095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6608946084491915</v>
+        <v>0.6622141872628988</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>281236</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>252089</v>
+        <v>252379</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>309991</v>
+        <v>311127</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3506926084237139</v>
+        <v>0.3506926084237137</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3143472057468418</v>
+        <v>0.3147091084682991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3865488175622115</v>
+        <v>0.387966584910395</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>477</v>
@@ -5174,19 +5174,19 @@
         <v>363584</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>336941</v>
+        <v>334667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>388943</v>
+        <v>388358</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4491731736439264</v>
+        <v>0.4491731736439265</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4162588240795465</v>
+        <v>0.413449305748123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4805017585426024</v>
+        <v>0.4797789193596968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>730</v>
@@ -5195,19 +5195,19 @@
         <v>644819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>607425</v>
+        <v>608060</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>686628</v>
+        <v>686578</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4001622764144428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3769561617599381</v>
+        <v>0.3773503221998984</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.426107897253884</v>
+        <v>0.4260770724109272</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>520708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>491953</v>
+        <v>490817</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>549855</v>
+        <v>549565</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6493073915762861</v>
+        <v>0.649307391576286</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6134511824377886</v>
+        <v>0.612033415089605</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6856527942531583</v>
+        <v>0.685290891531701</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>567</v>
@@ -5245,19 +5245,19 @@
         <v>445867</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>420508</v>
+        <v>421093</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>472510</v>
+        <v>474784</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5508268263560734</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5194982414573975</v>
+        <v>0.5202210806403033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5837411759204535</v>
+        <v>0.586550694251877</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>989</v>
@@ -5266,19 +5266,19 @@
         <v>966576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>924767</v>
+        <v>924817</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1003970</v>
+        <v>1003335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5998377235855572</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5738921027461161</v>
+        <v>0.5739229275890728</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6230438382400618</v>
+        <v>0.6226496778001016</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>280806</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>250499</v>
+        <v>252819</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>311047</v>
+        <v>309490</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2844965980252569</v>
+        <v>0.284496598025257</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2537913148348402</v>
+        <v>0.2561417230502625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3151341659979214</v>
+        <v>0.3135573515080505</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>630</v>
@@ -5391,19 +5391,19 @@
         <v>451693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>423092</v>
+        <v>423127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>479651</v>
+        <v>482266</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4052072388817719</v>
+        <v>0.4052072388817718</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3795497853966552</v>
+        <v>0.37958074201701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.430287616430761</v>
+        <v>0.4326340769312395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>934</v>
@@ -5412,19 +5412,19 @@
         <v>732499</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>690706</v>
+        <v>689625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>775630</v>
+        <v>771711</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3485188138176805</v>
+        <v>0.3485188138176807</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3286336366736936</v>
+        <v>0.3281195522893967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3690399007451441</v>
+        <v>0.3671754782449033</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>706223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>675982</v>
+        <v>677539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>736530</v>
+        <v>734210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7155034019747429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6848658340020786</v>
+        <v>0.6864426484919491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7462086851651595</v>
+        <v>0.7438582769497374</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>926</v>
@@ -5462,19 +5462,19 @@
         <v>663028</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>635070</v>
+        <v>632455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>691629</v>
+        <v>691594</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5947927611182282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.569712383569239</v>
+        <v>0.5673659230687605</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6204502146033448</v>
+        <v>0.6204192579829898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1625</v>
@@ -5483,19 +5483,19 @@
         <v>1369251</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1326120</v>
+        <v>1330039</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1411044</v>
+        <v>1412125</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6514811861823192</v>
+        <v>0.6514811861823194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.630960099254856</v>
+        <v>0.6328245217550968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6713663633263063</v>
+        <v>0.6718804477106035</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1178305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1114025</v>
+        <v>1109009</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1241214</v>
+        <v>1236492</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.334480302848111</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3162332975722714</v>
+        <v>0.3148094927891202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.352337987108798</v>
+        <v>0.3509975941629788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2167</v>
@@ -5608,19 +5608,19 @@
         <v>1508830</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1459251</v>
+        <v>1453119</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1565482</v>
+        <v>1558171</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4049428888714752</v>
+        <v>0.4049428888714753</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3916369186741544</v>
+        <v>0.3899910055452638</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4201473400238085</v>
+        <v>0.4181851399655879</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3328</v>
@@ -5629,19 +5629,19 @@
         <v>2687135</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2601476</v>
+        <v>2602804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2766942</v>
+        <v>2773500</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3706993864467603</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3588824837130749</v>
+        <v>0.3590656153863635</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3817090729197802</v>
+        <v>0.3826137442505274</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2344489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2281580</v>
+        <v>2286302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2408769</v>
+        <v>2413785</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6655196971518892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.647662012891202</v>
+        <v>0.6490024058370208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6837667024277285</v>
+        <v>0.6851905072108796</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3184</v>
@@ -5679,19 +5679,19 @@
         <v>2217201</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2160549</v>
+        <v>2167860</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2266780</v>
+        <v>2272912</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5950571111285246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5798526599761916</v>
+        <v>0.5818148600344121</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6083630813258455</v>
+        <v>0.6100089944547364</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5390</v>
@@ -5700,19 +5700,19 @@
         <v>4561690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4481883</v>
+        <v>4475325</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4647349</v>
+        <v>4646021</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6293006135532399</v>
+        <v>0.6293006135532397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.61829092708022</v>
+        <v>0.6173862557494724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6411175162869251</v>
+        <v>0.6409343846136363</v>
       </c>
     </row>
     <row r="18">
